--- a/logs.xlsx
+++ b/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="166">
   <si>
     <t>search engine</t>
   </si>
@@ -46,6 +46,12 @@
     <t>twitch how to block ads</t>
   </si>
   <si>
+    <t>how to block ads on twitch 2023</t>
+  </si>
+  <si>
+    <t>block twitch ads 2023</t>
+  </si>
+  <si>
     <t>https://cybernews.com/best-ad-blockers/ad-blocker-for-twitch/</t>
   </si>
   <si>
@@ -247,6 +253,21 @@
     <t>https://marketbusinessnews.com/5-best</t>
   </si>
   <si>
+    <t>https://chrome.google.com/webstore/detail/twitch-adblock-plus/lehcglgkjkamolcflammloedahjocbbg</t>
+  </si>
+  <si>
+    <t>https://www.top10vpn.com/guides/how-to-block-twitch-ads/</t>
+  </si>
+  <si>
+    <t>https://helpcenter.getadblock.com/hc/en-us/articles/9738502507283-Does-AdBlock-block-ads-on-Twitch-</t>
+  </si>
+  <si>
+    <t>https://blog.eklipse.gg/beginner-guide-2/how-to-block-twitch-ads.html</t>
+  </si>
+  <si>
+    <t>https://cybernews.com/best-ad-blockers/how-to-block-twitch-ads/</t>
+  </si>
+  <si>
     <t>Best ad blockers for Twitch: Tested &amp; Working in 2023</t>
   </si>
   <si>
@@ -460,6 +481,18 @@
     <t>5 Best Ad-Blockers for Twitch in 2022 - Market Business News</t>
   </si>
   <si>
+    <t>Twitch™ Adblock Plus</t>
+  </si>
+  <si>
+    <t>Does AdBlock block ads on Twitch?</t>
+  </si>
+  <si>
+    <t>How To Block Twitch Ads in 2023: Try These Methods!</t>
+  </si>
+  <si>
+    <t>Block Twitch Ads in 2023: 4 Tested Ways - Cybernews</t>
+  </si>
+  <si>
     <t>08/05/2023 14:37:34</t>
   </si>
   <si>
@@ -473,6 +506,12 @@
   </si>
   <si>
     <t>08/05/2023 15:22:15</t>
+  </si>
+  <si>
+    <t>11/05/2023 15:50:58</t>
+  </si>
+  <si>
+    <t>11/05/2023 16:01:54</t>
   </si>
 </sst>
 </file>
@@ -843,7 +882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -874,13 +913,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -891,13 +930,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -908,13 +947,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -925,13 +964,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -942,13 +981,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -959,13 +998,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -976,13 +1015,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -993,13 +1032,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1010,13 +1049,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1027,13 +1066,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1044,13 +1083,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1061,13 +1100,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1078,13 +1117,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1095,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1112,13 +1151,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1129,13 +1168,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1146,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1163,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1180,13 +1219,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1197,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1214,13 +1253,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1231,13 +1270,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E23" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1248,13 +1287,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1265,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1282,13 +1321,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1299,13 +1338,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1316,13 +1355,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1333,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1350,13 +1389,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1367,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1384,13 +1423,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1401,13 +1440,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1418,13 +1457,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1435,13 +1474,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1452,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1469,13 +1508,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1486,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1503,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1520,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1537,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1554,13 +1593,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1571,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1588,13 +1627,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1605,13 +1644,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1622,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1639,13 +1678,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1656,13 +1695,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1673,13 +1712,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E49" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1690,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1707,13 +1746,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1724,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1741,13 +1780,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1758,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1775,13 +1814,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1792,13 +1831,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1809,13 +1848,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1826,13 +1865,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1843,13 +1882,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1860,13 +1899,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1877,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1894,13 +1933,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1911,13 +1950,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1928,13 +1967,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1945,13 +1984,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1962,13 +2001,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1979,13 +2018,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1996,13 +2035,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2013,13 +2052,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2030,13 +2069,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E70" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2047,13 +2086,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2064,13 +2103,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2081,13 +2120,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E73" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2098,13 +2137,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E74" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2115,13 +2154,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2132,13 +2171,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E76" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2149,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2166,13 +2205,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2183,13 +2222,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E79" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2200,13 +2239,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E80" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2217,13 +2256,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E81" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2234,13 +2273,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E82" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2251,13 +2290,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2268,13 +2307,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D84" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2285,13 +2324,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E85" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2302,13 +2341,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D86" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E86" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2319,13 +2358,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D87" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E87" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2336,13 +2375,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E88" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2353,13 +2392,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E89" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2370,13 +2409,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E90" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2387,13 +2426,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2404,13 +2443,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D92" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E92" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2421,13 +2460,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2438,13 +2477,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2455,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E95" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2472,13 +2511,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D96" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2489,13 +2528,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E97" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2506,13 +2545,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D98" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E98" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2523,13 +2562,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E99" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2540,13 +2579,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D100" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E100" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2557,13 +2596,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E101" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2574,13 +2613,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D102" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E102" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2591,13 +2630,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E103" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2608,13 +2647,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E104" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2625,13 +2664,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D105" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E105" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2642,13 +2681,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D106" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E106" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2659,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E107" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2676,13 +2715,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D108" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E108" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2693,13 +2732,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D109" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E109" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2710,13 +2749,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D110" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E110" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2727,13 +2766,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E111" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2744,13 +2783,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D112" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E112" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2761,13 +2800,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D113" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E113" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2778,13 +2817,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D114" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E114" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2795,13 +2834,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D115" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2812,13 +2851,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D116" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2829,13 +2868,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D117" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E117" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2846,13 +2885,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D118" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E118" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2863,13 +2902,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D119" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E119" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2880,13 +2919,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D120" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E120" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2897,13 +2936,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D121" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E121" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2914,13 +2953,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D122" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E122" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2931,13 +2970,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D123" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E123" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2948,13 +2987,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E124" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2965,13 +3004,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E125" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2982,13 +3021,13 @@
         <v>9</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E126" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2999,13 +3038,13 @@
         <v>9</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D127" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E127" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3016,13 +3055,13 @@
         <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D128" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E128" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3033,13 +3072,13 @@
         <v>9</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E129" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3050,13 +3089,13 @@
         <v>9</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D130" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E130" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3067,13 +3106,13 @@
         <v>9</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D131" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E131" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3084,13 +3123,13 @@
         <v>9</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D132" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E132" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3101,13 +3140,13 @@
         <v>9</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D133" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3118,13 +3157,13 @@
         <v>9</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E134" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3135,13 +3174,13 @@
         <v>9</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D135" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E135" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3152,13 +3191,13 @@
         <v>9</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E136" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3169,13 +3208,13 @@
         <v>9</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D137" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E137" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3186,13 +3225,13 @@
         <v>9</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E138" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3203,13 +3242,13 @@
         <v>9</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E139" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3220,13 +3259,13 @@
         <v>9</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D140" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E140" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3237,13 +3276,13 @@
         <v>9</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D141" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E141" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3254,13 +3293,13 @@
         <v>9</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D142" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E142" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3271,13 +3310,13 @@
         <v>9</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D143" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E143" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3288,13 +3327,13 @@
         <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D144" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E144" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3305,13 +3344,13 @@
         <v>9</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D145" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E145" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3322,13 +3361,13 @@
         <v>9</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E146" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3339,13 +3378,13 @@
         <v>9</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D147" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E147" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3356,13 +3395,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D148" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E148" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3373,13 +3412,13 @@
         <v>9</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E149" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3390,13 +3429,13 @@
         <v>9</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D150" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E150" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3407,13 +3446,13 @@
         <v>9</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E151" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3424,13 +3463,13 @@
         <v>9</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D152" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E152" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3441,13 +3480,13 @@
         <v>9</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D153" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E153" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3458,13 +3497,13 @@
         <v>9</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D154" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E154" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3475,13 +3514,13 @@
         <v>9</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D155" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E155" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3492,13 +3531,13 @@
         <v>9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E156" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3509,13 +3548,13 @@
         <v>9</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D157" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E157" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3526,13 +3565,13 @@
         <v>9</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E158" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3543,13 +3582,13 @@
         <v>9</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D159" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E159" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3560,13 +3599,13 @@
         <v>9</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D160" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E160" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3577,13 +3616,13 @@
         <v>9</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D161" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E161" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3594,13 +3633,13 @@
         <v>9</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D162" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E162" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3611,13 +3650,13 @@
         <v>9</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D163" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E163" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3628,13 +3667,13 @@
         <v>9</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D164" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E164" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3645,13 +3684,13 @@
         <v>9</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D165" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E165" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3662,13 +3701,13 @@
         <v>9</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E166" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3679,13 +3718,13 @@
         <v>9</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D167" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E167" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3696,13 +3735,13 @@
         <v>9</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D168" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="E168" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3713,13 +3752,13 @@
         <v>9</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E169" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3730,13 +3769,13 @@
         <v>9</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D170" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E170" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3747,13 +3786,13 @@
         <v>9</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D171" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E171" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3764,13 +3803,13 @@
         <v>9</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D172" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E172" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3781,13 +3820,13 @@
         <v>9</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D173" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E173" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3798,13 +3837,13 @@
         <v>9</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D174" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E174" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3815,13 +3854,13 @@
         <v>9</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D175" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E175" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3832,13 +3871,13 @@
         <v>9</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E176" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3849,13 +3888,13 @@
         <v>9</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D177" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E177" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3866,13 +3905,13 @@
         <v>9</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D178" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E178" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3883,13 +3922,13 @@
         <v>9</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E179" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3900,13 +3939,13 @@
         <v>9</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D180" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E180" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3917,13 +3956,13 @@
         <v>9</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D181" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E181" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3934,13 +3973,13 @@
         <v>9</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D182" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E182" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3951,13 +3990,13 @@
         <v>9</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D183" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E183" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3968,13 +4007,13 @@
         <v>9</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D184" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E184" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3985,13 +4024,13 @@
         <v>9</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D185" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E185" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4002,13 +4041,13 @@
         <v>9</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D186" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E186" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4019,13 +4058,13 @@
         <v>9</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D187" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E187" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4036,13 +4075,13 @@
         <v>9</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D188" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E188" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4053,13 +4092,13 @@
         <v>9</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D189" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E189" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4070,13 +4109,13 @@
         <v>9</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D190" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E190" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4087,13 +4126,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D191" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E191" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4104,13 +4143,13 @@
         <v>9</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D192" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E192" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4121,13 +4160,13 @@
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D193" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E193" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4138,13 +4177,13 @@
         <v>9</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D194" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E194" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4155,13 +4194,13 @@
         <v>9</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D195" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E195" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4172,13 +4211,13 @@
         <v>9</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D196" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E196" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4189,13 +4228,13 @@
         <v>9</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D197" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E197" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4206,13 +4245,13 @@
         <v>9</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D198" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E198" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4223,13 +4262,13 @@
         <v>9</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D199" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E199" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4240,13 +4279,13 @@
         <v>9</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D200" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E200" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4257,13 +4296,13 @@
         <v>9</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D201" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E201" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4274,13 +4313,13 @@
         <v>9</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D202" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E202" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4291,13 +4330,13 @@
         <v>9</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D203" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E203" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4308,13 +4347,13 @@
         <v>9</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E204" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4325,13 +4364,13 @@
         <v>9</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D205" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E205" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4342,13 +4381,13 @@
         <v>9</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D206" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E206" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4359,13 +4398,13 @@
         <v>9</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D207" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E207" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4376,13 +4415,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E208" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4393,13 +4432,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D209" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E209" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4410,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D210" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E210" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4427,13 +4466,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D211" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E211" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4444,13 +4483,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D212" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E212" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4461,13 +4500,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D213" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E213" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4478,13 +4517,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D214" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E214" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4495,13 +4534,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D215" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E215" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4512,13 +4551,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D216" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E216" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4529,13 +4568,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D217" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E217" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4546,13 +4585,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D218" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E218" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4563,13 +4602,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D219" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E219" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4580,13 +4619,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D220" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E220" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4597,13 +4636,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E221" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4614,13 +4653,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E222" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4631,13 +4670,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D223" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E223" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4648,13 +4687,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D224" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E224" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4665,13 +4704,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D225" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E225" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4682,13 +4721,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D226" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E226" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4699,13 +4738,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D227" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E227" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4716,13 +4755,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D228" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E228" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4733,13 +4772,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D229" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E229" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4750,13 +4789,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D230" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E230" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4767,13 +4806,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D231" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E231" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4784,13 +4823,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D232" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E232" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4801,13 +4840,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D233" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E233" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4818,13 +4857,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D234" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E234" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4835,13 +4874,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D235" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E235" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4852,13 +4891,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D236" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E236" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4869,13 +4908,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D237" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E237" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4886,13 +4925,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D238" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E238" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4903,13 +4942,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D239" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E239" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4920,13 +4959,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D240" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E240" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4937,13 +4976,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D241" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E241" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4954,13 +4993,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D242" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E242" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4971,13 +5010,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D243" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E243" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4988,13 +5027,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D244" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E244" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5005,13 +5044,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D245" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E245" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5022,13 +5061,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D246" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E246" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5039,13 +5078,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D247" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E247" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5056,13 +5095,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D248" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E248" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5073,13 +5112,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D249" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E249" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5090,13 +5129,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D250" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E250" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5107,13 +5146,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D251" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E251" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5124,13 +5163,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D252" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E252" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5141,13 +5180,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D253" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E253" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5158,13 +5197,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D254" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E254" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5175,13 +5214,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D255" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E255" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5192,13 +5231,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D256" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E256" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5209,13 +5248,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D257" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E257" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5226,13 +5265,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D258" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E258" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5243,13 +5282,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D259" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E259" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5260,13 +5299,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E260" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5277,13 +5316,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D261" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E261" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5294,13 +5333,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D262" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E262" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5311,13 +5350,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D263" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E263" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5328,13 +5367,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D264" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E264" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5345,13 +5384,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D265" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E265" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5362,13 +5401,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D266" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E266" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5379,13 +5418,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D267" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E267" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5396,13 +5435,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D268" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E268" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5413,13 +5452,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D269" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E269" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5430,13 +5469,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D270" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E270" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5447,13 +5486,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D271" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E271" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5464,13 +5503,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D272" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E272" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5481,13 +5520,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D273" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E273" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5498,13 +5537,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D274" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E274" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5515,13 +5554,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D275" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E275" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5532,13 +5571,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D276" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E276" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5549,13 +5588,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D277" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E277" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5566,13 +5605,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D278" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E278" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5583,13 +5622,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D279" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E279" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5600,13 +5639,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D280" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E280" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5617,13 +5656,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D281" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E281" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5634,13 +5673,166 @@
         <v>8</v>
       </c>
       <c r="C282" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D282" t="s">
+        <v>86</v>
+      </c>
+      <c r="E282" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>10</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D283" t="s">
+        <v>155</v>
+      </c>
+      <c r="E283" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D284" t="s">
+        <v>155</v>
+      </c>
+      <c r="E284" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>10</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D282" t="s">
-        <v>79</v>
-      </c>
-      <c r="E282" t="s">
-        <v>152</v>
+      <c r="D285" t="s">
+        <v>84</v>
+      </c>
+      <c r="E285" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D286" t="s">
+        <v>148</v>
+      </c>
+      <c r="E286" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>10</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D287" t="s">
+        <v>156</v>
+      </c>
+      <c r="E287" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D288" t="s">
+        <v>157</v>
+      </c>
+      <c r="E288" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D289" t="s">
+        <v>158</v>
+      </c>
+      <c r="E289" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D290" t="s">
+        <v>158</v>
+      </c>
+      <c r="E290" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>5</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D291" t="s">
+        <v>157</v>
+      </c>
+      <c r="E291" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5926,6 +6118,15 @@
     <hyperlink ref="C280" r:id="rId279"/>
     <hyperlink ref="C281" r:id="rId280"/>
     <hyperlink ref="C282" r:id="rId281"/>
+    <hyperlink ref="C283" r:id="rId282"/>
+    <hyperlink ref="C284" r:id="rId283"/>
+    <hyperlink ref="C285" r:id="rId284"/>
+    <hyperlink ref="C286" r:id="rId285"/>
+    <hyperlink ref="C287" r:id="rId286"/>
+    <hyperlink ref="C288" r:id="rId287"/>
+    <hyperlink ref="C289" r:id="rId288"/>
+    <hyperlink ref="C290" r:id="rId289"/>
+    <hyperlink ref="C291" r:id="rId290"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs.xlsx
+++ b/logs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2405" uniqueCount="269">
   <si>
     <t>search engine</t>
   </si>
@@ -52,6 +52,9 @@
     <t>block twitch ads 2023</t>
   </si>
   <si>
+    <t>twitch ad block</t>
+  </si>
+  <si>
     <t>https://cybernews.com/best-ad-blockers/ad-blocker-for-twitch/</t>
   </si>
   <si>
@@ -268,6 +271,147 @@
     <t>https://cybernews.com/best-ad-blockers/how-to-block-twitch-ads/</t>
   </si>
   <si>
+    <t>https://www.reddit.com/r/Adblock/comments/10fgy9y/twitch_adblock_2023</t>
+  </si>
+  <si>
+    <t>https://privacysavvy.com/security/social/best-adblock-for-twitch</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gK8P0bTLUqc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O_0ikpnrJ54</t>
+  </si>
+  <si>
+    <t>https://hostingdata.co.uk/best-ad-block-for-twitch</t>
+  </si>
+  <si>
+    <t>https://adguard.com/en/article/how-to-block-twitch-ads.html</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/twitch-adblocker-plus/...</t>
+  </si>
+  <si>
+    <t>https://github.com/AlexRabbit/ADios</t>
+  </si>
+  <si>
+    <t>https://clay2day.com/article/what-are-the-best-ad-blockers-for-twitch-in-2023</t>
+  </si>
+  <si>
+    <t>https://ninja-ide.org/pihole-blocklist</t>
+  </si>
+  <si>
+    <t>https://microsoftedge.microsoft.com/addons/detail/adblocker-for-twitch...</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OxBvMTE_nEU</t>
+  </si>
+  <si>
+    <t>https://twitter.com/MistressBriley/status/1656050966360395778</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/.../every_twitch_user_without_adblock_in_2022</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JhqQjPf0BeQ</t>
+  </si>
+  <si>
+    <t>https://gamerstweak.com/ublock-origin-not-blocking-twitch-ads</t>
+  </si>
+  <si>
+    <t>https://twitter.com/BoioDruid/status/1655976673811079182</t>
+  </si>
+  <si>
+    <t>https://twitter.com/NasuAisuru/status/1656363712234549254</t>
+  </si>
+  <si>
+    <t>https://twitter.com/sivibird/status/1655937841212583937</t>
+  </si>
+  <si>
+    <t>https://www.pipiads.com/blog/tips-to-block-twitch-ads</t>
+  </si>
+  <si>
+    <t>https://www.techpluto.com/how-to-block-twitch-ads</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/twitch-adblock-plus...</t>
+  </si>
+  <si>
+    <t>https://news.trendmicro.com/2022/06/27/best-ad-blocker-for-twitch</t>
+  </si>
+  <si>
+    <t>https://streamsentials.com/how-to-block-ads-on-twitch</t>
+  </si>
+  <si>
+    <t>https://getadblock.com/en/block-twitch-ads-with-a…</t>
+  </si>
+  <si>
+    <t>https://techbide.com/how-to-block-ads-on-twitch</t>
+  </si>
+  <si>
+    <t>https://streamertactics.com/how-to-block-ads-on-twitch</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/uBlockOrigin/comments/svzrlv/blocking_twitch_ads</t>
+  </si>
+  <si>
+    <t>https://www.techtoogle.com/how-to/how-to-block-ads-on-twitch</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vc3jB1mpSOE</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/adblock-—-best-ad-blocker...</t>
+  </si>
+  <si>
+    <t>https://www.xbitlabs.com/how-to-block-twitch-ads</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/purple-ads-blocker/...</t>
+  </si>
+  <si>
+    <t>https://www.systweak.com/blogs/how-to-block-twitch-ads-on-chrome-firefox</t>
+  </si>
+  <si>
+    <t>https://www.boosthill.com/how-to-block-ads-on-twitch</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/uBlockOrigin/comments/x2f76q/are_no_solutions...</t>
+  </si>
+  <si>
+    <t>https://adguard.com/en/blog/youtube-ad-blocking-ban.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yjMMJ3Xjd5s</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/.../comments/z2mewp/how_to_bypass_twitch_ads_now</t>
+  </si>
+  <si>
+    <t>https://www.pipiads.com/blog/block-twitch-ads-use-ublock-origin</t>
+  </si>
+  <si>
+    <t>https://www.pipiads.com/blog/adblock-fails-to-block-twitch-ads</t>
+  </si>
+  <si>
+    <t>https://geekflare.com/fix-twitch-network-error-code-2000</t>
+  </si>
+  <si>
+    <t>https://twitter.com/polly_anthera/status/1656118157885554690</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/technology/2022/05/16/buffalo-shooting...</t>
+  </si>
+  <si>
+    <t>https://www.twitchadblock.com/</t>
+  </si>
+  <si>
+    <t>https://getadblock.com/en/block-twitch-ads-with-adblock/</t>
+  </si>
+  <si>
+    <t>https://www.blocktwitchads.com/</t>
+  </si>
+  <si>
     <t>Best ad blockers for Twitch: Tested &amp; Working in 2023</t>
   </si>
   <si>
@@ -493,6 +637,162 @@
     <t>Block Twitch Ads in 2023: 4 Tested Ways - Cybernews</t>
   </si>
   <si>
+    <t>Twitch Adblock 2023 : r/Adblock - Reddit</t>
+  </si>
+  <si>
+    <t>5 Best Ad Blockers for Twitch — Tested &amp; Still Working …</t>
+  </si>
+  <si>
+    <t>Four best ad blockers for Twitch in 2023 - PrivacySavvy</t>
+  </si>
+  <si>
+    <t>How To Block Ads On Twitch (5 Simple Steps 2023) | WePC</t>
+  </si>
+  <si>
+    <t>Twitch ™ Adblocker Plus - Chrome Web Store</t>
+  </si>
+  <si>
+    <t>Block Twitch Ads On PC and Mobile (2023 Update)</t>
+  </si>
+  <si>
+    <t>How To Block Ads On Twitch (5 Simple Steps 2023)</t>
+  </si>
+  <si>
+    <t>How To Block Twitch Ads (2023) - YouTube</t>
+  </si>
+  <si>
+    <t>3 "Best" AdBlock for Twitch (Block Ads on Twitch in 2023)</t>
+  </si>
+  <si>
+    <t>How to Block Twitch Ads | Stop Ads on Twitch with AdGuard</t>
+  </si>
+  <si>
+    <t>Twitch™ Adblocker Plus - Chrome Web Store</t>
+  </si>
+  <si>
+    <t>GitHub - AlexRabbit/ADios: ADBlocker - Block ADS on …</t>
+  </si>
+  <si>
+    <t>What Are the Best Ad Blockers for Twitch in 2023? (2023)</t>
+  </si>
+  <si>
+    <t>7 Best PiHole Blocklists 2023 - Safely Block all Ads - NINJA IDE</t>
+  </si>
+  <si>
+    <t>Twitch Adblock - Adblocker for Twitch - Microsoft Edge Addons</t>
+  </si>
+  <si>
+    <t>[ Updated; 16/12/22 ] Twitch AdBlock - How to block Twitch Ads …</t>
+  </si>
+  <si>
+    <t>🏳️‍⚧️MistressBriley💋😈🔞 (Solidarity Arc ... - Twitter</t>
+  </si>
+  <si>
+    <t>every Twitch user without adblock in 2022 : r/LivestreamFail - Reddit</t>
+  </si>
+  <si>
+    <t>Twitch Ad Blocker | Best Ad Blocker For Twitch - YouTube</t>
+  </si>
+  <si>
+    <t>ublock Origin Not Blocking Twitch Ads 2023 – How To Fix</t>
+  </si>
+  <si>
+    <t>🔴live now🔴 BoioDruid 🇨🇿 Vtuber Tech Support on ... - Twitter</t>
+  </si>
+  <si>
+    <t>Nasu Aisuru 🔞 on Twitter: "RT @Kyo_Koro: Twitch viewers don’t …</t>
+  </si>
+  <si>
+    <t>Sivi | Bird Vtuber on Twitter: "RT @Kyo_Koro: Twitch viewers don’t …</t>
+  </si>
+  <si>
+    <t>How to Block Twitch Ads [7 Easy Ways]</t>
+  </si>
+  <si>
+    <t>Tips to Block Twitch Ads - pipiads.com</t>
+  </si>
+  <si>
+    <t>How to Block Twitch Ads - techpluto.com</t>
+  </si>
+  <si>
+    <t>Twitch ™ Adblock Plus - Chrome Web Store</t>
+  </si>
+  <si>
+    <t>The Best Ad Blocker for Twitch — How to Block Ads on Twitch</t>
+  </si>
+  <si>
+    <t>10 Proven Methods to Block Ads on Twitch - Techbide</t>
+  </si>
+  <si>
+    <t>How To Block Ads on Twitch - Streamer Tactics</t>
+  </si>
+  <si>
+    <t>Blocking Twitch Ads : r/uBlockOrigin - reddit</t>
+  </si>
+  <si>
+    <t>How To Block Ads On Twitch (Complete Guide) - Tech Toogle</t>
+  </si>
+  <si>
+    <t>How to Block Twitch Ads (Now That Twitch Adblock is Gone)</t>
+  </si>
+  <si>
+    <t>AdBlock — best ad blocker - Chrome Web Store - Google Chrome</t>
+  </si>
+  <si>
+    <t>How to Block Twitch Ads | XBitLabs</t>
+  </si>
+  <si>
+    <t>Purple Ads Blocker - Chrome Web Store - Google Chrome</t>
+  </si>
+  <si>
+    <t>How to Block Twitch Ads on Chrome, Firefox - systweak.com</t>
+  </si>
+  <si>
+    <t>How to Block Ads on Twitch? Ads Blocking Tips for Gamers</t>
+  </si>
+  <si>
+    <t>Are no solutions working now to block Twitch ads?</t>
+  </si>
+  <si>
+    <t>YouTube tests new ways to stop ad blockers: what to know and …</t>
+  </si>
+  <si>
+    <t>How to block Ads on Twitch - Twitch Adblock - YouTube</t>
+  </si>
+  <si>
+    <t>How to bypass Twitch Ads now ? : r/uBlockOrigin - reddit.com</t>
+  </si>
+  <si>
+    <t>Block Twitch Ads: Use Ublock Origin - pipiads.com</t>
+  </si>
+  <si>
+    <t>Adblock Fails to Block Twitch Ads - pipiads.com</t>
+  </si>
+  <si>
+    <t>[Fixed] “Twitch Network Error Code 2000”: A Complete Guide</t>
+  </si>
+  <si>
+    <t>🔴live now🔴 BoioDruid 🇨🇿 Vtuber Tech Support on Twitter: "Boio tech …</t>
+  </si>
+  <si>
+    <t>polly | resident 🗿 enjoyer on Twitter: "RT @BoioDruid: Boio tech tips ...</t>
+  </si>
+  <si>
+    <t>Buffalo shooting livestream remains available - The Washington Post</t>
+  </si>
+  <si>
+    <t>Twitch Adblock Chrome Extension - Best Adblocker for Twitch.tv</t>
+  </si>
+  <si>
+    <t>How to Block Twitch Ads</t>
+  </si>
+  <si>
+    <t>pixeltris/TwitchAdSolutions</t>
+  </si>
+  <si>
+    <t>Adblock for Twitch Chrome Extension - 100% Working</t>
+  </si>
+  <si>
     <t>08/05/2023 14:37:34</t>
   </si>
   <si>
@@ -512,6 +812,15 @@
   </si>
   <si>
     <t>11/05/2023 16:01:54</t>
+  </si>
+  <si>
+    <t>11/05/2023 16:07:04</t>
+  </si>
+  <si>
+    <t>19/05/2023 14:53:32</t>
+  </si>
+  <si>
+    <t>19/05/2023 15:06:31</t>
   </si>
 </sst>
 </file>
@@ -882,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,13 +1222,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -930,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -947,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -964,13 +1273,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -981,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -998,13 +1307,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1015,13 +1324,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1032,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1049,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1066,13 +1375,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1083,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1100,13 +1409,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1117,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1134,13 +1443,13 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1151,13 +1460,13 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1168,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1185,13 +1494,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1202,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1219,13 +1528,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1236,13 +1545,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1253,13 +1562,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1270,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1287,13 +1596,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E24" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1304,13 +1613,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1321,13 +1630,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1338,13 +1647,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1355,13 +1664,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1372,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1389,13 +1698,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1406,13 +1715,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1423,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1440,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E33" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1457,13 +1766,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1474,13 +1783,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1491,13 +1800,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1508,13 +1817,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1525,13 +1834,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1542,13 +1851,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1559,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1576,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1593,13 +1902,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1610,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E43" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1627,13 +1936,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E44" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1644,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1661,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1678,13 +1987,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1695,13 +2004,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1712,13 +2021,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1729,13 +2038,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1746,13 +2055,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1763,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1780,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E53" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1797,13 +2106,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1814,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1831,13 +2140,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1848,13 +2157,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1865,13 +2174,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1882,13 +2191,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E59" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1899,13 +2208,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E60" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1916,13 +2225,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1933,13 +2242,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1950,13 +2259,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1967,13 +2276,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="E64" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1984,13 +2293,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2001,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2018,13 +2327,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2035,13 +2344,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="E68" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2052,13 +2361,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2069,13 +2378,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2086,13 +2395,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E71" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2103,13 +2412,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2120,13 +2429,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E73" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2137,13 +2446,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2154,13 +2463,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2171,13 +2480,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E76" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2188,13 +2497,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2205,13 +2514,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D78" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2222,13 +2531,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2239,13 +2548,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2256,13 +2565,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2273,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D82" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2290,13 +2599,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2307,13 +2616,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2324,13 +2633,13 @@
         <v>8</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2341,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2358,13 +2667,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2375,13 +2684,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2392,13 +2701,13 @@
         <v>8</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2409,13 +2718,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2426,13 +2735,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E91" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2443,13 +2752,13 @@
         <v>8</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2460,13 +2769,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="E93" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2477,13 +2786,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E94" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2494,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E95" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2511,13 +2820,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D96" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E96" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2528,13 +2837,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D97" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E97" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2545,13 +2854,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D98" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="E98" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2562,13 +2871,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E99" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2579,13 +2888,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2596,13 +2905,13 @@
         <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2613,13 +2922,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2630,13 +2939,13 @@
         <v>8</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E103" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2647,13 +2956,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E104" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2664,13 +2973,13 @@
         <v>8</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E105" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2681,13 +2990,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="E106" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2698,13 +3007,13 @@
         <v>8</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D107" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E107" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2715,13 +3024,13 @@
         <v>8</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D108" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="E108" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2732,13 +3041,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D109" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E109" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2749,13 +3058,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D110" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E110" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2766,13 +3075,13 @@
         <v>8</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E111" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2783,13 +3092,13 @@
         <v>8</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D112" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="E112" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2800,13 +3109,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E113" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2817,13 +3126,13 @@
         <v>8</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E114" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2834,13 +3143,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D115" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="E115" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2851,13 +3160,13 @@
         <v>8</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D116" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="E116" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2868,13 +3177,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D117" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="E117" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2885,13 +3194,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="E118" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2902,13 +3211,13 @@
         <v>8</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E119" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2919,13 +3228,13 @@
         <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D120" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E120" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2936,13 +3245,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D121" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E121" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2953,13 +3262,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D122" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="E122" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2970,13 +3279,13 @@
         <v>8</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="E123" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2987,13 +3296,13 @@
         <v>8</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E124" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3004,13 +3313,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E125" t="s">
-        <v>161</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3021,13 +3330,13 @@
         <v>9</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>85</v>
+        <v>133</v>
       </c>
       <c r="E126" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3038,13 +3347,13 @@
         <v>9</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E127" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3055,13 +3364,13 @@
         <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D128" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E128" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3072,13 +3381,13 @@
         <v>9</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D129" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E129" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3089,13 +3398,13 @@
         <v>9</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="E130" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3106,13 +3415,13 @@
         <v>9</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D131" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E131" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3123,13 +3432,13 @@
         <v>9</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3140,13 +3449,13 @@
         <v>9</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D133" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="E133" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3157,13 +3466,13 @@
         <v>9</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D134" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E134" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3174,13 +3483,13 @@
         <v>9</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3191,13 +3500,13 @@
         <v>9</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D136" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E136" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3208,13 +3517,13 @@
         <v>9</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E137" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3225,13 +3534,13 @@
         <v>9</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D138" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="E138" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3242,13 +3551,13 @@
         <v>9</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E139" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3259,13 +3568,13 @@
         <v>9</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D140" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E140" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3276,13 +3585,13 @@
         <v>9</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D141" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="E141" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3293,13 +3602,13 @@
         <v>9</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D142" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3310,13 +3619,13 @@
         <v>9</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D143" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="E143" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3327,13 +3636,13 @@
         <v>9</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D144" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="E144" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3344,13 +3653,13 @@
         <v>9</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D145" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E145" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3361,13 +3670,13 @@
         <v>9</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E146" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3378,13 +3687,13 @@
         <v>9</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3395,13 +3704,13 @@
         <v>9</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D148" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E148" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3412,13 +3721,13 @@
         <v>9</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D149" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="E149" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3429,13 +3738,13 @@
         <v>9</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D150" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="E150" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3446,13 +3755,13 @@
         <v>9</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D151" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="E151" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3463,13 +3772,13 @@
         <v>9</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E152" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3480,13 +3789,13 @@
         <v>9</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E153" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3497,13 +3806,13 @@
         <v>9</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D154" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E154" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3514,13 +3823,13 @@
         <v>9</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D155" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="E155" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3531,13 +3840,13 @@
         <v>9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D156" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E156" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3548,13 +3857,13 @@
         <v>9</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D157" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E157" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3565,13 +3874,13 @@
         <v>9</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D158" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E158" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3582,13 +3891,13 @@
         <v>9</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3599,13 +3908,13 @@
         <v>9</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D160" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="E160" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3616,13 +3925,13 @@
         <v>9</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D161" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="E161" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3633,13 +3942,13 @@
         <v>9</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D162" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="E162" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3650,13 +3959,13 @@
         <v>9</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D163" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E163" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3667,13 +3976,13 @@
         <v>9</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D164" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="E164" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3684,13 +3993,13 @@
         <v>9</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D165" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E165" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3701,13 +4010,13 @@
         <v>9</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D166" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E166" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3718,13 +4027,13 @@
         <v>9</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D167" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3735,13 +4044,13 @@
         <v>9</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D168" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="E168" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3752,13 +4061,13 @@
         <v>9</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D169" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E169" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3769,13 +4078,13 @@
         <v>9</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D170" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E170" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3786,13 +4095,13 @@
         <v>9</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E171" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3803,13 +4112,13 @@
         <v>9</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D172" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="E172" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3820,13 +4129,13 @@
         <v>9</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D173" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="E173" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3837,13 +4146,13 @@
         <v>9</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D174" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3854,13 +4163,13 @@
         <v>9</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D175" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="E175" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3871,13 +4180,13 @@
         <v>9</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E176" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3888,13 +4197,13 @@
         <v>9</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D177" t="s">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E177" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3905,13 +4214,13 @@
         <v>9</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D178" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="E178" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3922,13 +4231,13 @@
         <v>9</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D179" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="E179" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3939,13 +4248,13 @@
         <v>9</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D180" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E180" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3956,13 +4265,13 @@
         <v>9</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E181" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3973,13 +4282,13 @@
         <v>9</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D182" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="E182" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3990,13 +4299,13 @@
         <v>9</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D183" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="E183" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4007,13 +4316,13 @@
         <v>9</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D184" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="E184" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4024,13 +4333,13 @@
         <v>9</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D185" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="E185" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4041,13 +4350,13 @@
         <v>9</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E186" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4058,13 +4367,13 @@
         <v>9</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D187" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="E187" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4075,13 +4384,13 @@
         <v>9</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D188" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E188" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4092,13 +4401,13 @@
         <v>9</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D189" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E189" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4109,13 +4418,13 @@
         <v>9</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D190" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="E190" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4126,13 +4435,13 @@
         <v>9</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D191" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4143,13 +4452,13 @@
         <v>9</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D192" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4160,13 +4469,13 @@
         <v>9</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D193" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4177,13 +4486,13 @@
         <v>9</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D194" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4194,13 +4503,13 @@
         <v>9</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D195" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="E195" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4211,13 +4520,13 @@
         <v>9</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E196" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4228,13 +4537,13 @@
         <v>9</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D197" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="E197" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4245,13 +4554,13 @@
         <v>9</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D198" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="E198" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4262,13 +4571,13 @@
         <v>9</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D199" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="E199" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4279,13 +4588,13 @@
         <v>9</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D200" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="E200" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4296,13 +4605,13 @@
         <v>9</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D201" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="E201" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4313,13 +4622,13 @@
         <v>9</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D202" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="E202" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4330,13 +4639,13 @@
         <v>9</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D203" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="E203" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4347,13 +4656,13 @@
         <v>9</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E204" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4364,13 +4673,13 @@
         <v>9</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D205" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="E205" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4381,13 +4690,13 @@
         <v>9</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E206" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4398,13 +4707,13 @@
         <v>9</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D207" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="E207" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4415,13 +4724,13 @@
         <v>8</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D208" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="E208" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4432,13 +4741,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E209" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4449,13 +4758,13 @@
         <v>8</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D210" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="E210" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4466,13 +4775,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D211" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E211" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4483,13 +4792,13 @@
         <v>8</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D212" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="E212" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4500,13 +4809,13 @@
         <v>8</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D213" t="s">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="E213" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4517,13 +4826,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D214" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="E214" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4534,13 +4843,13 @@
         <v>8</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D215" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E215" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4551,13 +4860,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D216" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="E216" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4568,13 +4877,13 @@
         <v>8</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D217" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="E217" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4585,13 +4894,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D218" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E218" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4602,13 +4911,13 @@
         <v>8</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D219" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E219" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4619,13 +4928,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="E220" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4636,13 +4945,13 @@
         <v>8</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D221" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E221" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4653,13 +4962,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D222" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="E222" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4670,13 +4979,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D223" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E223" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4687,13 +4996,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D224" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="E224" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4704,13 +5013,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D225" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="E225" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4721,13 +5030,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D226" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E226" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4738,13 +5047,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D227" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E227" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4755,13 +5064,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D228" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E228" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4772,13 +5081,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D229" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="E229" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4789,13 +5098,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="E230" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4806,13 +5115,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D231" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E231" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4823,13 +5132,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D232" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E232" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4840,13 +5149,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D233" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="E233" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4857,13 +5166,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D234" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E234" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4874,13 +5183,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D235" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E235" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4891,13 +5200,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D236" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="E236" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4908,13 +5217,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D237" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="E237" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4925,13 +5234,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D238" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E238" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4942,13 +5251,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D239" t="s">
-        <v>115</v>
+        <v>163</v>
       </c>
       <c r="E239" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4959,13 +5268,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D240" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E240" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4976,13 +5285,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D241" t="s">
-        <v>101</v>
+        <v>149</v>
       </c>
       <c r="E241" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4993,13 +5302,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D242" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E242" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5010,13 +5319,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D243" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="E243" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5027,13 +5336,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D244" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E244" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5044,13 +5353,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D245" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="E245" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5061,13 +5370,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D246" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="E246" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5078,13 +5387,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D247" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="E247" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5095,13 +5404,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D248" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E248" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5112,13 +5421,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D249" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="E249" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5129,13 +5438,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D250" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E250" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5146,13 +5455,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D251" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E251" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5163,13 +5472,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D252" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E252" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5180,13 +5489,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D253" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="E253" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5197,13 +5506,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D254" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E254" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5214,13 +5523,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D255" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="E255" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5231,13 +5540,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D256" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="E256" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5248,13 +5557,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D257" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="E257" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5265,13 +5574,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D258" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E258" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5282,13 +5591,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D259" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="E259" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5299,13 +5608,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D260" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E260" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5316,13 +5625,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D261" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E261" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5333,13 +5642,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D262" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="E262" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5350,13 +5659,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D263" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E263" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5367,13 +5676,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D264" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="E264" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5384,13 +5693,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D265" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="E265" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5401,13 +5710,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D266" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="E266" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5418,13 +5727,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D267" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="E267" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5435,13 +5744,13 @@
         <v>8</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D268" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E268" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5452,13 +5761,13 @@
         <v>8</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D269" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="E269" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5469,13 +5778,13 @@
         <v>8</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D270" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="E270" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5486,13 +5795,13 @@
         <v>8</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D271" t="s">
-        <v>100</v>
+        <v>148</v>
       </c>
       <c r="E271" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5503,13 +5812,13 @@
         <v>8</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D272" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="E272" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5520,13 +5829,13 @@
         <v>8</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D273" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="E273" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5537,13 +5846,13 @@
         <v>8</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D274" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E274" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5554,13 +5863,13 @@
         <v>8</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D275" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="E275" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5571,13 +5880,13 @@
         <v>8</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D276" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="E276" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5588,13 +5897,13 @@
         <v>8</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D277" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="E277" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5605,13 +5914,13 @@
         <v>8</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D278" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E278" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5622,13 +5931,13 @@
         <v>8</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D279" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="E279" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5639,13 +5948,13 @@
         <v>8</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D280" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="E280" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5656,13 +5965,13 @@
         <v>8</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D281" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E281" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5673,13 +5982,13 @@
         <v>8</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D282" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="E282" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5690,13 +5999,13 @@
         <v>10</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D283" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="E283" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5707,13 +6016,13 @@
         <v>10</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D284" t="s">
-        <v>155</v>
+        <v>203</v>
       </c>
       <c r="E284" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5724,13 +6033,13 @@
         <v>10</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D285" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="E285" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5741,13 +6050,13 @@
         <v>10</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D286" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="E286" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5758,13 +6067,13 @@
         <v>10</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D287" t="s">
-        <v>156</v>
+        <v>204</v>
       </c>
       <c r="E287" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5775,13 +6084,13 @@
         <v>10</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D288" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="E288" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5792,13 +6101,13 @@
         <v>11</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D289" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="E289" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5809,13 +6118,13 @@
         <v>11</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D290" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="E290" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5826,13 +6135,3243 @@
         <v>11</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D291" t="s">
-        <v>157</v>
+        <v>205</v>
       </c>
       <c r="E291" t="s">
-        <v>165</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>6</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D292" t="s">
+        <v>206</v>
+      </c>
+      <c r="E292" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D293" t="s">
+        <v>139</v>
+      </c>
+      <c r="E293" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D294" t="s">
+        <v>136</v>
+      </c>
+      <c r="E294" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>6</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D295" t="s">
+        <v>207</v>
+      </c>
+      <c r="E295" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>6</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D296" t="s">
+        <v>208</v>
+      </c>
+      <c r="E296" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>6</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D297" t="s">
+        <v>209</v>
+      </c>
+      <c r="E297" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D298" t="s">
+        <v>181</v>
+      </c>
+      <c r="E298" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>6</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D299" t="s">
+        <v>210</v>
+      </c>
+      <c r="E299" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>6</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D300" t="s">
+        <v>211</v>
+      </c>
+      <c r="E300" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>6</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D301" t="s">
+        <v>212</v>
+      </c>
+      <c r="E301" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>6</v>
+      </c>
+      <c r="B302" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D302" t="s">
+        <v>206</v>
+      </c>
+      <c r="E302" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D303" t="s">
+        <v>172</v>
+      </c>
+      <c r="E303" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>6</v>
+      </c>
+      <c r="B304" t="s">
+        <v>7</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D304" t="s">
+        <v>209</v>
+      </c>
+      <c r="E304" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>6</v>
+      </c>
+      <c r="B305" t="s">
+        <v>7</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D305" t="s">
+        <v>181</v>
+      </c>
+      <c r="E305" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>6</v>
+      </c>
+      <c r="B306" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D306" t="s">
+        <v>138</v>
+      </c>
+      <c r="E306" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" t="s">
+        <v>7</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D307" t="s">
+        <v>213</v>
+      </c>
+      <c r="E307" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>6</v>
+      </c>
+      <c r="B308" t="s">
+        <v>7</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D308" t="s">
+        <v>142</v>
+      </c>
+      <c r="E308" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D309" t="s">
+        <v>190</v>
+      </c>
+      <c r="E309" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" t="s">
+        <v>7</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D310" t="s">
+        <v>214</v>
+      </c>
+      <c r="E310" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D311" t="s">
+        <v>166</v>
+      </c>
+      <c r="E311" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D312" t="s">
+        <v>206</v>
+      </c>
+      <c r="E312" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>6</v>
+      </c>
+      <c r="B313" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D313" t="s">
+        <v>172</v>
+      </c>
+      <c r="E313" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>6</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D314" t="s">
+        <v>209</v>
+      </c>
+      <c r="E314" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>6</v>
+      </c>
+      <c r="B315" t="s">
+        <v>7</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D315" t="s">
+        <v>158</v>
+      </c>
+      <c r="E315" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>6</v>
+      </c>
+      <c r="B316" t="s">
+        <v>7</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D316" t="s">
+        <v>215</v>
+      </c>
+      <c r="E316" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>6</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D317" t="s">
+        <v>216</v>
+      </c>
+      <c r="E317" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>6</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318" t="s">
+        <v>140</v>
+      </c>
+      <c r="E318" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>6</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D319" t="s">
+        <v>142</v>
+      </c>
+      <c r="E319" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D320" t="s">
+        <v>145</v>
+      </c>
+      <c r="E320" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D321" t="s">
+        <v>214</v>
+      </c>
+      <c r="E321" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322" t="s">
+        <v>206</v>
+      </c>
+      <c r="E322" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D323" t="s">
+        <v>209</v>
+      </c>
+      <c r="E323" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>6</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D324" t="s">
+        <v>158</v>
+      </c>
+      <c r="E324" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>6</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D325" t="s">
+        <v>217</v>
+      </c>
+      <c r="E325" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>6</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D326" t="s">
+        <v>142</v>
+      </c>
+      <c r="E326" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>6</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D327" t="s">
+        <v>140</v>
+      </c>
+      <c r="E327" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>6</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D328" t="s">
+        <v>218</v>
+      </c>
+      <c r="E328" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D329" t="s">
+        <v>145</v>
+      </c>
+      <c r="E329" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>6</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D330" t="s">
+        <v>164</v>
+      </c>
+      <c r="E330" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>6</v>
+      </c>
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D331" t="s">
+        <v>214</v>
+      </c>
+      <c r="E331" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>6</v>
+      </c>
+      <c r="B332" t="s">
+        <v>7</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D332" t="s">
+        <v>206</v>
+      </c>
+      <c r="E332" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>6</v>
+      </c>
+      <c r="B333" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D333" t="s">
+        <v>209</v>
+      </c>
+      <c r="E333" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>6</v>
+      </c>
+      <c r="B334" t="s">
+        <v>7</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D334" t="s">
+        <v>219</v>
+      </c>
+      <c r="E334" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>6</v>
+      </c>
+      <c r="B335" t="s">
+        <v>7</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D335" t="s">
+        <v>220</v>
+      </c>
+      <c r="E335" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>6</v>
+      </c>
+      <c r="B336" t="s">
+        <v>7</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D336" t="s">
+        <v>164</v>
+      </c>
+      <c r="E336" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" t="s">
+        <v>7</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D337" t="s">
+        <v>221</v>
+      </c>
+      <c r="E337" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D338" t="s">
+        <v>167</v>
+      </c>
+      <c r="E338" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" t="s">
+        <v>7</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D339" t="s">
+        <v>222</v>
+      </c>
+      <c r="E339" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D340" t="s">
+        <v>214</v>
+      </c>
+      <c r="E340" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>6</v>
+      </c>
+      <c r="B341" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D341" t="s">
+        <v>223</v>
+      </c>
+      <c r="E341" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>6</v>
+      </c>
+      <c r="B342" t="s">
+        <v>7</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D342" t="s">
+        <v>206</v>
+      </c>
+      <c r="E342" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>6</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D343" t="s">
+        <v>164</v>
+      </c>
+      <c r="E343" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" t="s">
+        <v>7</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D344" t="s">
+        <v>221</v>
+      </c>
+      <c r="E344" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>6</v>
+      </c>
+      <c r="B345" t="s">
+        <v>7</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D345" t="s">
+        <v>224</v>
+      </c>
+      <c r="E345" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" t="s">
+        <v>7</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D346" t="s">
+        <v>222</v>
+      </c>
+      <c r="E346" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D347" t="s">
+        <v>179</v>
+      </c>
+      <c r="E347" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>6</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D348" t="s">
+        <v>214</v>
+      </c>
+      <c r="E348" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>6</v>
+      </c>
+      <c r="B349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D349" t="s">
+        <v>225</v>
+      </c>
+      <c r="E349" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>6</v>
+      </c>
+      <c r="B350" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D350" t="s">
+        <v>226</v>
+      </c>
+      <c r="E350" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>6</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D351" t="s">
+        <v>223</v>
+      </c>
+      <c r="E351" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>6</v>
+      </c>
+      <c r="B352" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D352" t="s">
+        <v>206</v>
+      </c>
+      <c r="E352" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>6</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D353" t="s">
+        <v>223</v>
+      </c>
+      <c r="E353" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D354" t="s">
+        <v>227</v>
+      </c>
+      <c r="E354" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>6</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D355" t="s">
+        <v>228</v>
+      </c>
+      <c r="E355" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>6</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D356" t="s">
+        <v>229</v>
+      </c>
+      <c r="E356" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>6</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D357" t="s">
+        <v>206</v>
+      </c>
+      <c r="E357" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D358" t="s">
+        <v>223</v>
+      </c>
+      <c r="E358" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D359" t="s">
+        <v>227</v>
+      </c>
+      <c r="E359" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D360" t="s">
+        <v>228</v>
+      </c>
+      <c r="E360" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>6</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D361" t="s">
+        <v>229</v>
+      </c>
+      <c r="E361" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>6</v>
+      </c>
+      <c r="B362" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D362" t="s">
+        <v>206</v>
+      </c>
+      <c r="E362" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>6</v>
+      </c>
+      <c r="B363" t="s">
+        <v>7</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D363" t="s">
+        <v>223</v>
+      </c>
+      <c r="E363" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>6</v>
+      </c>
+      <c r="B364" t="s">
+        <v>7</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D364" t="s">
+        <v>227</v>
+      </c>
+      <c r="E364" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" t="s">
+        <v>7</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D365" t="s">
+        <v>228</v>
+      </c>
+      <c r="E365" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>6</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D366" t="s">
+        <v>229</v>
+      </c>
+      <c r="E366" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>6</v>
+      </c>
+      <c r="B367" t="s">
+        <v>7</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D367" t="s">
+        <v>206</v>
+      </c>
+      <c r="E367" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>6</v>
+      </c>
+      <c r="B368" t="s">
+        <v>7</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D368" t="s">
+        <v>223</v>
+      </c>
+      <c r="E368" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>6</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D369" t="s">
+        <v>227</v>
+      </c>
+      <c r="E369" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>6</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D370" t="s">
+        <v>228</v>
+      </c>
+      <c r="E370" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>6</v>
+      </c>
+      <c r="B371" t="s">
+        <v>7</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D371" t="s">
+        <v>229</v>
+      </c>
+      <c r="E371" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>6</v>
+      </c>
+      <c r="B372" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D372" t="s">
+        <v>133</v>
+      </c>
+      <c r="E372" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>6</v>
+      </c>
+      <c r="B373" t="s">
+        <v>9</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D373" t="s">
+        <v>158</v>
+      </c>
+      <c r="E373" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" t="s">
+        <v>9</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D374" t="s">
+        <v>134</v>
+      </c>
+      <c r="E374" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" t="s">
+        <v>9</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D375" t="s">
+        <v>135</v>
+      </c>
+      <c r="E375" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>6</v>
+      </c>
+      <c r="B376" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D376" t="s">
+        <v>137</v>
+      </c>
+      <c r="E376" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>6</v>
+      </c>
+      <c r="B377" t="s">
+        <v>9</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D377" t="s">
+        <v>141</v>
+      </c>
+      <c r="E377" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>6</v>
+      </c>
+      <c r="B378" t="s">
+        <v>9</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D378" t="s">
+        <v>136</v>
+      </c>
+      <c r="E378" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379" t="s">
+        <v>9</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D379" t="s">
+        <v>140</v>
+      </c>
+      <c r="E379" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>6</v>
+      </c>
+      <c r="B380" t="s">
+        <v>9</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D380" t="s">
+        <v>230</v>
+      </c>
+      <c r="E380" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>6</v>
+      </c>
+      <c r="B381" t="s">
+        <v>9</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D381" t="s">
+        <v>231</v>
+      </c>
+      <c r="E381" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>6</v>
+      </c>
+      <c r="B382" t="s">
+        <v>9</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D382" t="s">
+        <v>158</v>
+      </c>
+      <c r="E382" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" t="s">
+        <v>9</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D383" t="s">
+        <v>134</v>
+      </c>
+      <c r="E383" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>6</v>
+      </c>
+      <c r="B384" t="s">
+        <v>9</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D384" t="s">
+        <v>141</v>
+      </c>
+      <c r="E384" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>6</v>
+      </c>
+      <c r="B385" t="s">
+        <v>9</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D385" t="s">
+        <v>166</v>
+      </c>
+      <c r="E385" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" t="s">
+        <v>9</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D386" t="s">
+        <v>232</v>
+      </c>
+      <c r="E386" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>6</v>
+      </c>
+      <c r="B387" t="s">
+        <v>9</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D387" t="s">
+        <v>233</v>
+      </c>
+      <c r="E387" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>6</v>
+      </c>
+      <c r="B388" t="s">
+        <v>9</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D388" t="s">
+        <v>138</v>
+      </c>
+      <c r="E388" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>6</v>
+      </c>
+      <c r="B389" t="s">
+        <v>9</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D389" t="s">
+        <v>140</v>
+      </c>
+      <c r="E389" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>6</v>
+      </c>
+      <c r="B390" t="s">
+        <v>9</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D390" t="s">
+        <v>234</v>
+      </c>
+      <c r="E390" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>6</v>
+      </c>
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D391" t="s">
+        <v>183</v>
+      </c>
+      <c r="E391" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" t="s">
+        <v>9</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D392" t="s">
+        <v>134</v>
+      </c>
+      <c r="E392" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" t="s">
+        <v>9</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D393" t="s">
+        <v>166</v>
+      </c>
+      <c r="E393" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>6</v>
+      </c>
+      <c r="B394" t="s">
+        <v>9</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D394" t="s">
+        <v>141</v>
+      </c>
+      <c r="E394" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D395" t="s">
+        <v>167</v>
+      </c>
+      <c r="E395" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>6</v>
+      </c>
+      <c r="B396" t="s">
+        <v>9</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D396" t="s">
+        <v>138</v>
+      </c>
+      <c r="E396" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D397" t="s">
+        <v>232</v>
+      </c>
+      <c r="E397" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>6</v>
+      </c>
+      <c r="B398" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D398" t="s">
+        <v>140</v>
+      </c>
+      <c r="E398" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>6</v>
+      </c>
+      <c r="B399" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D399" t="s">
+        <v>159</v>
+      </c>
+      <c r="E399" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>6</v>
+      </c>
+      <c r="B400" t="s">
+        <v>9</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D400" t="s">
+        <v>179</v>
+      </c>
+      <c r="E400" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" t="s">
+        <v>9</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D401" t="s">
+        <v>183</v>
+      </c>
+      <c r="E401" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402" t="s">
+        <v>9</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D402" t="s">
+        <v>166</v>
+      </c>
+      <c r="E402" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>6</v>
+      </c>
+      <c r="B403" t="s">
+        <v>9</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D403" t="s">
+        <v>159</v>
+      </c>
+      <c r="E403" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>6</v>
+      </c>
+      <c r="B404" t="s">
+        <v>9</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D404" t="s">
+        <v>138</v>
+      </c>
+      <c r="E404" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>6</v>
+      </c>
+      <c r="B405" t="s">
+        <v>9</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D405" t="s">
+        <v>167</v>
+      </c>
+      <c r="E405" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>6</v>
+      </c>
+      <c r="B406" t="s">
+        <v>9</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D406" t="s">
+        <v>232</v>
+      </c>
+      <c r="E406" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>6</v>
+      </c>
+      <c r="B407" t="s">
+        <v>9</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D407" t="s">
+        <v>145</v>
+      </c>
+      <c r="E407" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B408" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D408" t="s">
+        <v>179</v>
+      </c>
+      <c r="E408" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>6</v>
+      </c>
+      <c r="B409" t="s">
+        <v>9</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D409" t="s">
+        <v>183</v>
+      </c>
+      <c r="E409" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>6</v>
+      </c>
+      <c r="B410" t="s">
+        <v>9</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D410" t="s">
+        <v>235</v>
+      </c>
+      <c r="E410" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D411" t="s">
+        <v>231</v>
+      </c>
+      <c r="E411" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" t="s">
+        <v>9</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D412" t="s">
+        <v>166</v>
+      </c>
+      <c r="E412" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>6</v>
+      </c>
+      <c r="B413" t="s">
+        <v>9</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D413" t="s">
+        <v>159</v>
+      </c>
+      <c r="E413" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>6</v>
+      </c>
+      <c r="B414" t="s">
+        <v>9</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D414" t="s">
+        <v>232</v>
+      </c>
+      <c r="E414" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>6</v>
+      </c>
+      <c r="B415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D415" t="s">
+        <v>236</v>
+      </c>
+      <c r="E415" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" t="s">
+        <v>9</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D416" t="s">
+        <v>179</v>
+      </c>
+      <c r="E416" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>6</v>
+      </c>
+      <c r="B417" t="s">
+        <v>9</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D417" t="s">
+        <v>183</v>
+      </c>
+      <c r="E417" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>6</v>
+      </c>
+      <c r="B418" t="s">
+        <v>9</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D418" t="s">
+        <v>237</v>
+      </c>
+      <c r="E418" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>6</v>
+      </c>
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D419" t="s">
+        <v>238</v>
+      </c>
+      <c r="E419" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>6</v>
+      </c>
+      <c r="B420" t="s">
+        <v>9</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D420" t="s">
+        <v>231</v>
+      </c>
+      <c r="E420" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>6</v>
+      </c>
+      <c r="B421" t="s">
+        <v>9</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D421" t="s">
+        <v>239</v>
+      </c>
+      <c r="E421" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>6</v>
+      </c>
+      <c r="B422" t="s">
+        <v>9</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D422" t="s">
+        <v>232</v>
+      </c>
+      <c r="E422" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>6</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D423" t="s">
+        <v>240</v>
+      </c>
+      <c r="E423" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>6</v>
+      </c>
+      <c r="B424" t="s">
+        <v>9</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D424" t="s">
+        <v>236</v>
+      </c>
+      <c r="E424" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>6</v>
+      </c>
+      <c r="B425" t="s">
+        <v>9</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D425" t="s">
+        <v>241</v>
+      </c>
+      <c r="E425" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>6</v>
+      </c>
+      <c r="B426" t="s">
+        <v>9</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D426" t="s">
+        <v>242</v>
+      </c>
+      <c r="E426" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>6</v>
+      </c>
+      <c r="B427" t="s">
+        <v>9</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D427" t="s">
+        <v>179</v>
+      </c>
+      <c r="E427" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>6</v>
+      </c>
+      <c r="B428" t="s">
+        <v>9</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D428" t="s">
+        <v>183</v>
+      </c>
+      <c r="E428" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" t="s">
+        <v>9</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D429" t="s">
+        <v>237</v>
+      </c>
+      <c r="E429" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>6</v>
+      </c>
+      <c r="B430" t="s">
+        <v>9</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D430" t="s">
+        <v>238</v>
+      </c>
+      <c r="E430" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>6</v>
+      </c>
+      <c r="B431" t="s">
+        <v>9</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D431" t="s">
+        <v>231</v>
+      </c>
+      <c r="E431" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>6</v>
+      </c>
+      <c r="B432" t="s">
+        <v>9</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D432" t="s">
+        <v>240</v>
+      </c>
+      <c r="E432" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>6</v>
+      </c>
+      <c r="B433" t="s">
+        <v>9</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D433" t="s">
+        <v>241</v>
+      </c>
+      <c r="E433" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>6</v>
+      </c>
+      <c r="B434" t="s">
+        <v>9</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D434" t="s">
+        <v>242</v>
+      </c>
+      <c r="E434" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>6</v>
+      </c>
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D435" t="s">
+        <v>183</v>
+      </c>
+      <c r="E435" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>6</v>
+      </c>
+      <c r="B436" t="s">
+        <v>9</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D436" t="s">
+        <v>243</v>
+      </c>
+      <c r="E436" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" t="s">
+        <v>6</v>
+      </c>
+      <c r="B437" t="s">
+        <v>9</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D437" t="s">
+        <v>190</v>
+      </c>
+      <c r="E437" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>6</v>
+      </c>
+      <c r="B438" t="s">
+        <v>9</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D438" t="s">
+        <v>244</v>
+      </c>
+      <c r="E438" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
+        <v>6</v>
+      </c>
+      <c r="B439" t="s">
+        <v>9</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D439" t="s">
+        <v>178</v>
+      </c>
+      <c r="E439" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" t="s">
+        <v>6</v>
+      </c>
+      <c r="B440" t="s">
+        <v>9</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D440" t="s">
+        <v>245</v>
+      </c>
+      <c r="E440" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" t="s">
+        <v>6</v>
+      </c>
+      <c r="B441" t="s">
+        <v>9</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D441" t="s">
+        <v>246</v>
+      </c>
+      <c r="E441" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
+        <v>6</v>
+      </c>
+      <c r="B442" t="s">
+        <v>9</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D442" t="s">
+        <v>232</v>
+      </c>
+      <c r="E442" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" t="s">
+        <v>6</v>
+      </c>
+      <c r="B443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D443" t="s">
+        <v>241</v>
+      </c>
+      <c r="E443" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" t="s">
+        <v>6</v>
+      </c>
+      <c r="B444" t="s">
+        <v>9</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D444" t="s">
+        <v>231</v>
+      </c>
+      <c r="E444" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" t="s">
+        <v>6</v>
+      </c>
+      <c r="B445" t="s">
+        <v>9</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D445" t="s">
+        <v>243</v>
+      </c>
+      <c r="E445" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
+        <v>6</v>
+      </c>
+      <c r="B446" t="s">
+        <v>9</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D446" t="s">
+        <v>244</v>
+      </c>
+      <c r="E446" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" t="s">
+        <v>6</v>
+      </c>
+      <c r="B447" t="s">
+        <v>9</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D447" t="s">
+        <v>190</v>
+      </c>
+      <c r="E447" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" t="s">
+        <v>6</v>
+      </c>
+      <c r="B448" t="s">
+        <v>9</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D448" t="s">
+        <v>247</v>
+      </c>
+      <c r="E448" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" t="s">
+        <v>6</v>
+      </c>
+      <c r="B449" t="s">
+        <v>9</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D449" t="s">
+        <v>154</v>
+      </c>
+      <c r="E449" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" t="s">
+        <v>6</v>
+      </c>
+      <c r="B450" t="s">
+        <v>9</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D450" t="s">
+        <v>246</v>
+      </c>
+      <c r="E450" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" t="s">
+        <v>6</v>
+      </c>
+      <c r="B451" t="s">
+        <v>9</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D451" t="s">
+        <v>248</v>
+      </c>
+      <c r="E451" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" t="s">
+        <v>6</v>
+      </c>
+      <c r="B452" t="s">
+        <v>9</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D452" t="s">
+        <v>232</v>
+      </c>
+      <c r="E452" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" t="s">
+        <v>6</v>
+      </c>
+      <c r="B453" t="s">
+        <v>9</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D453" t="s">
+        <v>231</v>
+      </c>
+      <c r="E453" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" t="s">
+        <v>6</v>
+      </c>
+      <c r="B454" t="s">
+        <v>9</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D454" t="s">
+        <v>249</v>
+      </c>
+      <c r="E454" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" t="s">
+        <v>6</v>
+      </c>
+      <c r="B455" t="s">
+        <v>9</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D455" t="s">
+        <v>243</v>
+      </c>
+      <c r="E455" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" t="s">
+        <v>6</v>
+      </c>
+      <c r="B456" t="s">
+        <v>9</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D456" t="s">
+        <v>250</v>
+      </c>
+      <c r="E456" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" t="s">
+        <v>6</v>
+      </c>
+      <c r="B457" t="s">
+        <v>9</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D457" t="s">
+        <v>246</v>
+      </c>
+      <c r="E457" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" t="s">
+        <v>6</v>
+      </c>
+      <c r="B458" t="s">
+        <v>9</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D458" t="s">
+        <v>251</v>
+      </c>
+      <c r="E458" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" t="s">
+        <v>6</v>
+      </c>
+      <c r="B459" t="s">
+        <v>9</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D459" t="s">
+        <v>252</v>
+      </c>
+      <c r="E459" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" t="s">
+        <v>6</v>
+      </c>
+      <c r="B460" t="s">
+        <v>9</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D460" t="s">
+        <v>253</v>
+      </c>
+      <c r="E460" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" t="s">
+        <v>6</v>
+      </c>
+      <c r="B461" t="s">
+        <v>9</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D461" t="s">
+        <v>254</v>
+      </c>
+      <c r="E461" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" t="s">
+        <v>6</v>
+      </c>
+      <c r="B462" t="s">
+        <v>9</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D462" t="s">
+        <v>232</v>
+      </c>
+      <c r="E462" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" t="s">
+        <v>6</v>
+      </c>
+      <c r="B463" t="s">
+        <v>9</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D463" t="s">
+        <v>231</v>
+      </c>
+      <c r="E463" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" t="s">
+        <v>6</v>
+      </c>
+      <c r="B464" t="s">
+        <v>9</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D464" t="s">
+        <v>249</v>
+      </c>
+      <c r="E464" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" t="s">
+        <v>6</v>
+      </c>
+      <c r="B465" t="s">
+        <v>9</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D465" t="s">
+        <v>243</v>
+      </c>
+      <c r="E465" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" t="s">
+        <v>6</v>
+      </c>
+      <c r="B466" t="s">
+        <v>9</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D466" t="s">
+        <v>250</v>
+      </c>
+      <c r="E466" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" t="s">
+        <v>6</v>
+      </c>
+      <c r="B467" t="s">
+        <v>9</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D467" t="s">
+        <v>246</v>
+      </c>
+      <c r="E467" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" t="s">
+        <v>6</v>
+      </c>
+      <c r="B468" t="s">
+        <v>9</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D468" t="s">
+        <v>251</v>
+      </c>
+      <c r="E468" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" t="s">
+        <v>6</v>
+      </c>
+      <c r="B469" t="s">
+        <v>9</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D469" t="s">
+        <v>252</v>
+      </c>
+      <c r="E469" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" t="s">
+        <v>6</v>
+      </c>
+      <c r="B470" t="s">
+        <v>9</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D470" t="s">
+        <v>253</v>
+      </c>
+      <c r="E470" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" t="s">
+        <v>6</v>
+      </c>
+      <c r="B471" t="s">
+        <v>9</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D471" t="s">
+        <v>254</v>
+      </c>
+      <c r="E471" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" t="s">
+        <v>12</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D472" t="s">
+        <v>203</v>
+      </c>
+      <c r="E472" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" t="s">
+        <v>12</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D473" t="s">
+        <v>255</v>
+      </c>
+      <c r="E473" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" t="s">
+        <v>12</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D474" t="s">
+        <v>179</v>
+      </c>
+      <c r="E474" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" t="s">
+        <v>12</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D475" t="s">
+        <v>203</v>
+      </c>
+      <c r="E475" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" t="s">
+        <v>12</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D476" t="s">
+        <v>196</v>
+      </c>
+      <c r="E476" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" t="s">
+        <v>12</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D477" t="s">
+        <v>138</v>
+      </c>
+      <c r="E477" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478" t="s">
+        <v>12</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D478" t="s">
+        <v>256</v>
+      </c>
+      <c r="E478" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479" t="s">
+        <v>12</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D479" t="s">
+        <v>257</v>
+      </c>
+      <c r="E479" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" t="s">
+        <v>12</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D480" t="s">
+        <v>258</v>
+      </c>
+      <c r="E480" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" t="s">
+        <v>12</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D481" t="s">
+        <v>132</v>
+      </c>
+      <c r="E481" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -6127,6 +9666,196 @@
     <hyperlink ref="C289" r:id="rId288"/>
     <hyperlink ref="C290" r:id="rId289"/>
     <hyperlink ref="C291" r:id="rId290"/>
+    <hyperlink ref="C292" r:id="rId291"/>
+    <hyperlink ref="C293" r:id="rId292"/>
+    <hyperlink ref="C294" r:id="rId293"/>
+    <hyperlink ref="C295" r:id="rId294"/>
+    <hyperlink ref="C296" r:id="rId295"/>
+    <hyperlink ref="C297" r:id="rId296"/>
+    <hyperlink ref="C298" r:id="rId297"/>
+    <hyperlink ref="C299" r:id="rId298"/>
+    <hyperlink ref="C300" r:id="rId299"/>
+    <hyperlink ref="C301" r:id="rId300"/>
+    <hyperlink ref="C302" r:id="rId301"/>
+    <hyperlink ref="C303" r:id="rId302"/>
+    <hyperlink ref="C304" r:id="rId303"/>
+    <hyperlink ref="C305" r:id="rId304"/>
+    <hyperlink ref="C306" r:id="rId305"/>
+    <hyperlink ref="C307" r:id="rId306"/>
+    <hyperlink ref="C308" r:id="rId307"/>
+    <hyperlink ref="C309" r:id="rId308"/>
+    <hyperlink ref="C310" r:id="rId309"/>
+    <hyperlink ref="C311" r:id="rId310"/>
+    <hyperlink ref="C312" r:id="rId311"/>
+    <hyperlink ref="C313" r:id="rId312"/>
+    <hyperlink ref="C314" r:id="rId313"/>
+    <hyperlink ref="C315" r:id="rId314"/>
+    <hyperlink ref="C316" r:id="rId315"/>
+    <hyperlink ref="C317" r:id="rId316"/>
+    <hyperlink ref="C318" r:id="rId317"/>
+    <hyperlink ref="C319" r:id="rId318"/>
+    <hyperlink ref="C320" r:id="rId319"/>
+    <hyperlink ref="C321" r:id="rId320"/>
+    <hyperlink ref="C322" r:id="rId321"/>
+    <hyperlink ref="C323" r:id="rId322"/>
+    <hyperlink ref="C324" r:id="rId323"/>
+    <hyperlink ref="C325" r:id="rId324"/>
+    <hyperlink ref="C326" r:id="rId325"/>
+    <hyperlink ref="C327" r:id="rId326"/>
+    <hyperlink ref="C328" r:id="rId327"/>
+    <hyperlink ref="C329" r:id="rId328"/>
+    <hyperlink ref="C330" r:id="rId329"/>
+    <hyperlink ref="C331" r:id="rId330"/>
+    <hyperlink ref="C332" r:id="rId331"/>
+    <hyperlink ref="C333" r:id="rId332"/>
+    <hyperlink ref="C334" r:id="rId333"/>
+    <hyperlink ref="C335" r:id="rId334"/>
+    <hyperlink ref="C336" r:id="rId335"/>
+    <hyperlink ref="C337" r:id="rId336"/>
+    <hyperlink ref="C338" r:id="rId337"/>
+    <hyperlink ref="C339" r:id="rId338"/>
+    <hyperlink ref="C340" r:id="rId339"/>
+    <hyperlink ref="C341" r:id="rId340"/>
+    <hyperlink ref="C342" r:id="rId341"/>
+    <hyperlink ref="C343" r:id="rId342"/>
+    <hyperlink ref="C344" r:id="rId343"/>
+    <hyperlink ref="C345" r:id="rId344"/>
+    <hyperlink ref="C346" r:id="rId345"/>
+    <hyperlink ref="C347" r:id="rId346"/>
+    <hyperlink ref="C348" r:id="rId347"/>
+    <hyperlink ref="C349" r:id="rId348"/>
+    <hyperlink ref="C350" r:id="rId349"/>
+    <hyperlink ref="C351" r:id="rId350"/>
+    <hyperlink ref="C352" r:id="rId351"/>
+    <hyperlink ref="C353" r:id="rId352"/>
+    <hyperlink ref="C354" r:id="rId353"/>
+    <hyperlink ref="C355" r:id="rId354"/>
+    <hyperlink ref="C356" r:id="rId355"/>
+    <hyperlink ref="C357" r:id="rId356"/>
+    <hyperlink ref="C358" r:id="rId357"/>
+    <hyperlink ref="C359" r:id="rId358"/>
+    <hyperlink ref="C360" r:id="rId359"/>
+    <hyperlink ref="C361" r:id="rId360"/>
+    <hyperlink ref="C362" r:id="rId361"/>
+    <hyperlink ref="C363" r:id="rId362"/>
+    <hyperlink ref="C364" r:id="rId363"/>
+    <hyperlink ref="C365" r:id="rId364"/>
+    <hyperlink ref="C366" r:id="rId365"/>
+    <hyperlink ref="C367" r:id="rId366"/>
+    <hyperlink ref="C368" r:id="rId367"/>
+    <hyperlink ref="C369" r:id="rId368"/>
+    <hyperlink ref="C370" r:id="rId369"/>
+    <hyperlink ref="C371" r:id="rId370"/>
+    <hyperlink ref="C372" r:id="rId371"/>
+    <hyperlink ref="C373" r:id="rId372"/>
+    <hyperlink ref="C374" r:id="rId373"/>
+    <hyperlink ref="C375" r:id="rId374"/>
+    <hyperlink ref="C376" r:id="rId375"/>
+    <hyperlink ref="C377" r:id="rId376"/>
+    <hyperlink ref="C378" r:id="rId377"/>
+    <hyperlink ref="C379" r:id="rId378"/>
+    <hyperlink ref="C380" r:id="rId379"/>
+    <hyperlink ref="C381" r:id="rId380"/>
+    <hyperlink ref="C382" r:id="rId381"/>
+    <hyperlink ref="C383" r:id="rId382"/>
+    <hyperlink ref="C384" r:id="rId383"/>
+    <hyperlink ref="C385" r:id="rId384"/>
+    <hyperlink ref="C386" r:id="rId385"/>
+    <hyperlink ref="C387" r:id="rId386"/>
+    <hyperlink ref="C388" r:id="rId387"/>
+    <hyperlink ref="C389" r:id="rId388"/>
+    <hyperlink ref="C390" r:id="rId389"/>
+    <hyperlink ref="C391" r:id="rId390"/>
+    <hyperlink ref="C392" r:id="rId391"/>
+    <hyperlink ref="C393" r:id="rId392"/>
+    <hyperlink ref="C394" r:id="rId393"/>
+    <hyperlink ref="C395" r:id="rId394"/>
+    <hyperlink ref="C396" r:id="rId395"/>
+    <hyperlink ref="C397" r:id="rId396"/>
+    <hyperlink ref="C398" r:id="rId397"/>
+    <hyperlink ref="C399" r:id="rId398"/>
+    <hyperlink ref="C400" r:id="rId399"/>
+    <hyperlink ref="C401" r:id="rId400"/>
+    <hyperlink ref="C402" r:id="rId401"/>
+    <hyperlink ref="C403" r:id="rId402"/>
+    <hyperlink ref="C404" r:id="rId403"/>
+    <hyperlink ref="C405" r:id="rId404"/>
+    <hyperlink ref="C406" r:id="rId405"/>
+    <hyperlink ref="C407" r:id="rId406"/>
+    <hyperlink ref="C408" r:id="rId407"/>
+    <hyperlink ref="C409" r:id="rId408"/>
+    <hyperlink ref="C410" r:id="rId409"/>
+    <hyperlink ref="C411" r:id="rId410"/>
+    <hyperlink ref="C412" r:id="rId411"/>
+    <hyperlink ref="C413" r:id="rId412"/>
+    <hyperlink ref="C414" r:id="rId413"/>
+    <hyperlink ref="C415" r:id="rId414"/>
+    <hyperlink ref="C416" r:id="rId415"/>
+    <hyperlink ref="C417" r:id="rId416"/>
+    <hyperlink ref="C418" r:id="rId417"/>
+    <hyperlink ref="C419" r:id="rId418"/>
+    <hyperlink ref="C420" r:id="rId419"/>
+    <hyperlink ref="C421" r:id="rId420"/>
+    <hyperlink ref="C422" r:id="rId421"/>
+    <hyperlink ref="C423" r:id="rId422"/>
+    <hyperlink ref="C424" r:id="rId423"/>
+    <hyperlink ref="C425" r:id="rId424"/>
+    <hyperlink ref="C426" r:id="rId425"/>
+    <hyperlink ref="C427" r:id="rId426"/>
+    <hyperlink ref="C428" r:id="rId427"/>
+    <hyperlink ref="C429" r:id="rId428"/>
+    <hyperlink ref="C430" r:id="rId429"/>
+    <hyperlink ref="C431" r:id="rId430"/>
+    <hyperlink ref="C432" r:id="rId431"/>
+    <hyperlink ref="C433" r:id="rId432"/>
+    <hyperlink ref="C434" r:id="rId433"/>
+    <hyperlink ref="C435" r:id="rId434"/>
+    <hyperlink ref="C436" r:id="rId435"/>
+    <hyperlink ref="C437" r:id="rId436"/>
+    <hyperlink ref="C438" r:id="rId437"/>
+    <hyperlink ref="C439" r:id="rId438"/>
+    <hyperlink ref="C440" r:id="rId439"/>
+    <hyperlink ref="C441" r:id="rId440"/>
+    <hyperlink ref="C442" r:id="rId441"/>
+    <hyperlink ref="C443" r:id="rId442"/>
+    <hyperlink ref="C444" r:id="rId443"/>
+    <hyperlink ref="C445" r:id="rId444"/>
+    <hyperlink ref="C446" r:id="rId445"/>
+    <hyperlink ref="C447" r:id="rId446"/>
+    <hyperlink ref="C448" r:id="rId447"/>
+    <hyperlink ref="C449" r:id="rId448"/>
+    <hyperlink ref="C450" r:id="rId449"/>
+    <hyperlink ref="C451" r:id="rId450"/>
+    <hyperlink ref="C452" r:id="rId451"/>
+    <hyperlink ref="C453" r:id="rId452"/>
+    <hyperlink ref="C454" r:id="rId453"/>
+    <hyperlink ref="C455" r:id="rId454"/>
+    <hyperlink ref="C456" r:id="rId455"/>
+    <hyperlink ref="C457" r:id="rId456"/>
+    <hyperlink ref="C458" r:id="rId457"/>
+    <hyperlink ref="C459" r:id="rId458"/>
+    <hyperlink ref="C460" r:id="rId459"/>
+    <hyperlink ref="C461" r:id="rId460"/>
+    <hyperlink ref="C462" r:id="rId461"/>
+    <hyperlink ref="C463" r:id="rId462"/>
+    <hyperlink ref="C464" r:id="rId463"/>
+    <hyperlink ref="C465" r:id="rId464"/>
+    <hyperlink ref="C466" r:id="rId465"/>
+    <hyperlink ref="C467" r:id="rId466"/>
+    <hyperlink ref="C468" r:id="rId467"/>
+    <hyperlink ref="C469" r:id="rId468"/>
+    <hyperlink ref="C470" r:id="rId469"/>
+    <hyperlink ref="C471" r:id="rId470"/>
+    <hyperlink ref="C472" r:id="rId471"/>
+    <hyperlink ref="C473" r:id="rId472"/>
+    <hyperlink ref="C474" r:id="rId473"/>
+    <hyperlink ref="C475" r:id="rId474"/>
+    <hyperlink ref="C476" r:id="rId475"/>
+    <hyperlink ref="C477" r:id="rId476"/>
+    <hyperlink ref="C478" r:id="rId477"/>
+    <hyperlink ref="C479" r:id="rId478"/>
+    <hyperlink ref="C480" r:id="rId479"/>
+    <hyperlink ref="C481" r:id="rId480"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
